--- a/XuMiuDuTing/RabiConfig/xlsx/Sprite.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Sprite.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CD3D5E-54D2-47D7-A5B3-F3B626E1D0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FEC64F-A01F-4C47-9AB2-6690AC8489EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,14 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AddressableAssets/Sprite/Story/背景美术资源/背景图片 (23).png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Sprite/Story/背景美术资源/背景图片 (20).png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>背景图片 (20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,9 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AddressableAssets/Sprite/Story/背景美术资源/IMG_4640.PNG</t>
-  </si>
-  <si>
     <t>IMG_1044</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,12 +63,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/AddressableAssets/Sprite/Story/背景美术资源/IMG_1044.PNG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AddressableAssets/Sprite/Story/背景美术资源/街头商店.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/背景图片 (23).png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/背景图片 (20).png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/IMG_4640.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/IMG_1044.PNG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/街头商店.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景图片 (21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/背景图片 (21).png</t>
+  </si>
+  <si>
+    <t>CW56Q%[UM5`LB(FTC{6%T0Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/CW56Q%[UM5`LB(FTC{6%T0Q.png</t>
+  </si>
+  <si>
+    <t>IMG_4642</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/IMG_4642.PNG</t>
   </si>
 </sst>
 </file>
@@ -414,9 +435,9 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -430,21 +451,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="45.25" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +476,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +487,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -477,44 +498,68 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/XuMiuDuTing/RabiConfig/xlsx/Sprite.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Sprite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FEC64F-A01F-4C47-9AB2-6690AC8489EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41058FE7-4C76-4B50-BFCF-057F9EB13EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,51 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/IMG_4642.PNG</t>
+  </si>
+  <si>
+    <t>IMG_1042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/IMG_1042.PNG</t>
+  </si>
+  <si>
+    <t>背景图片 (14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/背景图片 (14).png</t>
+  </si>
+  <si>
+    <t>背景图片 (29)</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/背景图片 (29).png</t>
+  </si>
+  <si>
+    <t>（1080p）CG01</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/CG/（1080p）CG01.PNG</t>
+  </si>
+  <si>
+    <t>虚谬空洞</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/虚谬空洞.png</t>
+  </si>
+  <si>
+    <t>IMG_4641</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/IMG_4641.PNG</t>
+  </si>
+  <si>
+    <t>背景图片 (30)</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/背景图片 (30).png</t>
   </si>
 </sst>
 </file>
@@ -435,9 +480,9 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -451,21 +496,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="45.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="45.25" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +521,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +532,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -498,15 +543,15 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -514,52 +559,108 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/XuMiuDuTing/RabiConfig/xlsx/Sprite.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Sprite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41058FE7-4C76-4B50-BFCF-057F9EB13EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0A737B-2C9B-4E70-B611-207F627E26FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,33 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/背景图片 (30).png</t>
+  </si>
+  <si>
+    <t>背景图片 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/背景图片 (1).png</t>
+  </si>
+  <si>
+    <t>背景图片 (28)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/背景图片 (28).png</t>
+  </si>
+  <si>
+    <t>背景图片 (31)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/背景图片 (31).png</t>
+  </si>
+  <si>
+    <t>背景图片 (19)</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/背景图片 (19).png</t>
   </si>
 </sst>
 </file>
@@ -496,10 +523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -545,121 +572,156 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
+      <c r="A12" t="s">
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
+      <c r="A15" t="s">
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>19</v>
+      <c r="A16" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" t="s">
         <v>28</v>
       </c>
     </row>

--- a/XuMiuDuTing/RabiConfig/xlsx/Sprite.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/Sprite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0A737B-2C9B-4E70-B611-207F627E26FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407A3FEB-0AE7-414C-844B-56C4C99CD3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/背景图片 (19).png</t>
+  </si>
+  <si>
+    <t>（1080p）CG02_background</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/Sprite/Dialogue/背景美术资源/CG/（1080p）CG02_background.png</t>
   </si>
 </sst>
 </file>
@@ -523,7 +529,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
@@ -725,6 +731,14 @@
         <v>28</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
